--- a/medicine/Sexualité et sexologie/Abus_sexuels_dans_la_congrégation_des_Salésiens/Abus_sexuels_dans_la_congrégation_des_Salésiens.xlsx
+++ b/medicine/Sexualité et sexologie/Abus_sexuels_dans_la_congrégation_des_Salésiens/Abus_sexuels_dans_la_congrégation_des_Salésiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abus_sexuels_dans_la_congr%C3%A9gation_des_Sal%C3%A9siens</t>
+          <t>Abus_sexuels_dans_la_congrégation_des_Salésiens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les abus sexuels dans la  congrégation des Salésiens désignent les sévices sexuels commis au sein de cette institution par certains de ses clercs et agents pastoraux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abus_sexuels_dans_la_congr%C3%A9gation_des_Sal%C3%A9siens</t>
+          <t>Abus_sexuels_dans_la_congrégation_des_Salésiens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En janvier 2011, Jos Claes, supérieur des Salésiens de la province de Belgique-nord regroupant la Flandre et les Pays-Bas, présente ses excuses aux victimes d’abus commis par son ordre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2011, Jos Claes, supérieur des Salésiens de la province de Belgique-nord regroupant la Flandre et les Pays-Bas, présente ses excuses aux victimes d’abus commis par son ordre.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abus_sexuels_dans_la_congr%C3%A9gation_des_Sal%C3%A9siens</t>
+          <t>Abus_sexuels_dans_la_congrégation_des_Salésiens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,17 +558,162 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Australie
-Le prêtre salésien Frank De Dood a agressé sexuellement 4  enfants au sein du collège salésien Rupertswood, à Sunbury et un autre  garçon dans une résidence salésienne à Oakleigh, banlieue de Melbourne dans le Victoria. En 2017, il est condamné à 20 mois de prison [2].
-Belgique
-En 2019, le prêtre belge Luk Delft, religieux salésien et secrétaire nationale de l’ONG Caritas Internationalis en République centrafricaine, est accusé d'agressions sexuelles à Bangui. Il a déjà été condamné en 2012 en Belgique pour abus sur mineur[3],[4].I l est condamné en juin 2023,  à 30 mois de prison, dont 20 mois avec sursis pour le viol de deux garçons en Belgique. Par contre le viol d’un mineur en République centrafricaine n'est pas acté par le tribunal [5].
-Le pape François annonce le 29 mai 2022 que l'évêque salésien Luc Van Looy sera promu cardinal[6]. Le 16 juin 2022, Luc Van Looy refuse cette nomination en raison des critiques liées à sa passivité lors de révélations des abus sexuels sur mineurs commis par des ecclésiastiques dans son diocèse et au sein de son ordre, les Salésiens de Don Bosco (deux prêtres suspectés d'avoir fait des centaines de jeunes victimes en Afrique centrale)[7],[8].
-Espagne
-En 2019, en Espagne, des centaines de manifestants à Bilbao ont contesté la prescription des agressions sur des dizaines d’enfants âgés de 6 à 12 ans, entre 1975 et 1990, d'un ancien professeur de l’école des Salésiens[9].
-France
-En septembre 2001, l'évêque salésien français Pierre Pican est condamné à trois mois de prison avec sursis pour ne pas avoir signalé à la justice les agissements de l'abbé René Bissey. Il est le premier évêque français à être condamné pour non-dénonciation d'actes de pédophilie[10].
-Timor oriental
-En 2002, sont révélées les premières accusations de pédophilie à l'encontre de l'évêque salésien Carlos Filipe Ximenes Belo, administrateur apostolique de Dili capitale du Timor oriental et prix Nobel de la paix en 1996. Jean-Paul II accepte sa démission, officiellement à la suite de problèmes de santé. En 2022, il est accusé dans une enquête de l’hebdomadaire néerlandais De Groene Amsterdammer de violences sexuelles sur des garçons mineurs pendant une vingtaine d’années; il est sanctionné par le Vatican depuis septembre 2020. ces sanctions sont acceptées par Ximenes Belo[11],[12].
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prêtre salésien Frank De Dood a agressé sexuellement 4  enfants au sein du collège salésien Rupertswood, à Sunbury et un autre  garçon dans une résidence salésienne à Oakleigh, banlieue de Melbourne dans le Victoria. En 2017, il est condamné à 20 mois de prison .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abus_sexuels_dans_la_congrégation_des_Salésiens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abus_sexuels_dans_la_congr%C3%A9gation_des_Sal%C3%A9siens</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Affaires médiatisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, le prêtre belge Luk Delft, religieux salésien et secrétaire nationale de l’ONG Caritas Internationalis en République centrafricaine, est accusé d'agressions sexuelles à Bangui. Il a déjà été condamné en 2012 en Belgique pour abus sur mineur,.I l est condamné en juin 2023,  à 30 mois de prison, dont 20 mois avec sursis pour le viol de deux garçons en Belgique. Par contre le viol d’un mineur en République centrafricaine n'est pas acté par le tribunal .
+Le pape François annonce le 29 mai 2022 que l'évêque salésien Luc Van Looy sera promu cardinal. Le 16 juin 2022, Luc Van Looy refuse cette nomination en raison des critiques liées à sa passivité lors de révélations des abus sexuels sur mineurs commis par des ecclésiastiques dans son diocèse et au sein de son ordre, les Salésiens de Don Bosco (deux prêtres suspectés d'avoir fait des centaines de jeunes victimes en Afrique centrale),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abus_sexuels_dans_la_congrégation_des_Salésiens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abus_sexuels_dans_la_congr%C3%A9gation_des_Sal%C3%A9siens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Affaires médiatisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espagne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, en Espagne, des centaines de manifestants à Bilbao ont contesté la prescription des agressions sur des dizaines d’enfants âgés de 6 à 12 ans, entre 1975 et 1990, d'un ancien professeur de l’école des Salésiens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abus_sexuels_dans_la_congrégation_des_Salésiens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abus_sexuels_dans_la_congr%C3%A9gation_des_Sal%C3%A9siens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Affaires médiatisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2001, l'évêque salésien français Pierre Pican est condamné à trois mois de prison avec sursis pour ne pas avoir signalé à la justice les agissements de l'abbé René Bissey. Il est le premier évêque français à être condamné pour non-dénonciation d'actes de pédophilie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abus_sexuels_dans_la_congrégation_des_Salésiens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abus_sexuels_dans_la_congr%C3%A9gation_des_Sal%C3%A9siens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Affaires médiatisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Timor oriental</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, sont révélées les premières accusations de pédophilie à l'encontre de l'évêque salésien Carlos Filipe Ximenes Belo, administrateur apostolique de Dili capitale du Timor oriental et prix Nobel de la paix en 1996. Jean-Paul II accepte sa démission, officiellement à la suite de problèmes de santé. En 2022, il est accusé dans une enquête de l’hebdomadaire néerlandais De Groene Amsterdammer de violences sexuelles sur des garçons mineurs pendant une vingtaine d’années; il est sanctionné par le Vatican depuis septembre 2020. ces sanctions sont acceptées par Ximenes Belo,.
 </t>
         </is>
       </c>
